--- a/unza_programmes.xlsx
+++ b/unza_programmes.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Combined" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Admitted" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Processed_Combined" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Combined" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Admitted" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="196">
   <si>
     <t xml:space="preserve">series</t>
   </si>
@@ -32,10 +33,10 @@
     <t xml:space="preserve">school_abbr</t>
   </si>
   <si>
-    <t xml:space="preserve">progamme_as_advertised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progamme_as_admitted</t>
+    <t xml:space="preserve">programme_as_advertised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programme_as_admitted</t>
   </si>
   <si>
     <t xml:space="preserve">allocation_certainty</t>
@@ -74,415 +75,415 @@
     <t xml:space="preserve">BACHELOR OF SCIENCE IN HUMAN NUTRITION</t>
   </si>
   <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN AGRONOMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS WITH EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (ENVIRONMENTAL EDUCATION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF LIBRARY AND INFORMATION SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (SPECIAL EDUCATION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (SOCIOLOGY OF EDUCATION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (EDUCATIONAL PSYCHOLOGY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (LITERACY AND LANGUAGE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN RECORDS AND ARCHIVES MANAGEMENT (BARAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF INFORMATION AND COMMUNICATION TECHNOLOGIES IN EDUCATION (B.ICTS. ED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (PRIMARY EDUCATION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (EARLY CHILDHOOD EDUCATION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (GUIDANCE AND COUNSELLING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (EDUCATIONAL ADMINISTRATION AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION (SOCIAL SCIENCES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ADULT EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION-SECONDARY (MATHEMATICS AND SCIENCE) (BEDMAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE WITH EDUCATION (BSC.ED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF AGRICULTURAL SCIENCE WITH EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMA IN TEACHING METHODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMA IN ICTS For In-Service Teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION IN COMMERCE AND ENTERPRENEURSHIP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTGRADUATE DIPLOMA IN EDUCATIONAL LEADERSHIP AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF EDUCATION IN CHINESE LANGUAGE TEACHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING (AGRICULTURAL ENGINEERING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING (CIVIL AND ENVIRONMENTAL ENGINEERING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING (ELECTRICAL AND ELECTRONIC ENGINEERING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING (GEOMATIC ENGINEERING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING (MECHANICAL ENGINEERING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF HEALTH SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Sc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOMEDICAL SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN PHYSIOTHERAPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN DIAGNOSTIC RADIOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN THERAPEUTIC RADIOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN DIAGNOSTIC RADIOGRAPHY (Blended Model for in service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN THERAPEUTIC RADIOGRAPHY (Blended Model for in service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF HUMANITIES AND SOCIAL SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF BUSINESS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN LINGUISTICS AND CHINESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN DEMOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN DEVELOPMENT STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN ECONOMICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN ENGLISH LANGUAGE AND LINGUISTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN FRENCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN GENDER STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN HISTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN INTANGIBLE CULTURAL HERITAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN PHILOSOPHY AND APPLIED ETHICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN POLITICAL SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN PUBLIC ADMINISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN SOCIOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF PUBLIC RELATIONS AND ADVERTISING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SOCIAL WORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF MEDIA AND JOURNALISM STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN DRAMA(BA.D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN LITERATURE(BA.L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN HUMAN RESOURCE MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF COMMUNICATION SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN INTERNATIONAL RELATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN LOCAL GOVERNMENT ADMINISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN PEACE, SECURITY AND CONFLICT RESOLUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN CRIMINOLOGY AND SECURITY STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN PROJECT MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN COMMUNITY DEVELOPMENT AND SOCIAL WELFARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN POLICE AND SECURITY STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN CHILD,  YOUTH AND FAMILY STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN RURAL SOCIOLOGY AND COMMUNITY DEVELOPMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ARTS IN SECURITY AND CORRECTIONAL STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELORS OF ARTS IN MIGRATION STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELORS OF INDUSTRIAL SOCIOLOGY AND LABOUR STUDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF LAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF LAWS(LLB) FULL TIME OR PART-TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Med.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF MEDICINE AND SURGERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF HUMAN BIOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF NURSING SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursing Sc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE NURSING(DURATION FOUR YEAR(4) YEARS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MIDWIFERY(DURATION FIVE(5) YEARS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN ONCOLOGY NURSING(DURATION FIVE(5) YEARS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN PUBLIC HEALTH NURSING(DURATION FOUR(4) YEARS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MENTAL HEALTH AND PSYCHIATRIC NURSING(DURATION FOUR(4) YEARS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF MINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN GEOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING IN MINING ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING IN METALLURGICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING IN GEOTECHNICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERTIFICATE IN MINING ENGINEERING (1 YEAR BLENDED LEARNING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERTIFICATE IN METALLURGICAL ENGINEERING (1 YEAR BLENDED LEARNING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF NATURAL SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN COMPUTER SYSTEMS ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN NETWORKING AND INFORMATION SECURITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN ACTUARIAL SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN CHEMICAL &amp; BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN CHEMISTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MATHEMATICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MICROBIOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MOLECULAR BIOLOGY AND GENETICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN NATURAL RESOURCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN PARASITOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN PHYSICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN STATISTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF PUBLIC HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pub. Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE (ENVIRONMENTAL HEALTH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE (HEALTH SERVICES MANAGEMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE (HEALTH PROMOTION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL OF VETERINARY MEDICINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vet. Med.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF VETERINARY MEDICINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADUATE SCHOOL OF BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN MARKETING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN ACCOUNTING AND FINANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN HUMAN RESOURCE MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN BUSINESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN TRANSPORT AND LOGISTICS MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF SCIENCE IN INNOVATION AND ENTREPRENEURSHIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACHELOR OF SCIENCE IN AGRONOMY (BSC. AGRONOMY)</t>
   </si>
   <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN AGRONOMY</t>
-  </si>
-  <si>
     <t xml:space="preserve">BACHELOR OF SCIENCE IN AGRICULTURAL ECONOMICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS WITH EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (ENVIRONMENTAL EDUCATION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF LIBRARY AND INFORMATION SCIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (SPECIAL EDUCATION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (SOCIOLOGY OF EDUCATION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (EDUCATIONAL PSYCHOLOGY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (LITERACY AND LANGUAGE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN RECORDS AND ARCHIVES MANAGEMENT (BARAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF INFORMATION AND COMMUNICATION TECHNOLOGIES IN EDUCATION (B.ICTS. ED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (PRIMARY EDUCATION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (EARLY CHILDHOOD EDUCATION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (GUIDANCE AND COUNSELLING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (EDUCATIONAL ADMINISTRATION AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION (SOCIAL SCIENCES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ADULT EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION-SECONDARY (MATHEMATICS AND SCIENCE) (BEDMAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE WITH EDUCATION (BSC.ED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF AGRICULTURAL SCIENCE WITH EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMA IN TEACHING METHODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMA IN ICTS For In-Service Teachers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION IN COMMERCE AND ENTERPRENEURSHIP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTGRADUATE DIPLOMA IN EDUCATIONAL LEADERSHIP AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF EDUCATION IN CHINESE LANGUAGE TEACHING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING (AGRICULTURAL ENGINEERING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING (CIVIL AND ENVIRONMENTAL ENGINEERING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING (ELECTRICAL AND ELECTRONIC ENGINEERING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING (GEOMATIC ENGINEERING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING (MECHANICAL ENGINEERING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF HEALTH SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Sc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOMEDICAL SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF PHARMACY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN PHYSIOTHERAPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN DIAGNOSTIC RADIOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN THERAPEUTIC RADIOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN DIAGNOSTIC RADIOGRAPHY (Blended Model for in service)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN THERAPEUTIC RADIOGRAPHY (Blended Model for in service)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF HUMANITIES AND SOCIAL SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF BUSINESS ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN LINGUISTICS AND CHINESE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN DEMOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN DEVELOPMENT STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN ECONOMICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN ENGLISH LANGUAGE AND LINGUISTICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN FRENCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN GENDER STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN HISTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN INTANGIBLE CULTURAL HERITAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN PHILOSOPHY AND APPLIED ETHICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN POLITICAL SCIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN PSYCHOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN PUBLIC ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN SOCIOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF PUBLIC RELATIONS AND ADVERTISING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SOCIAL WORK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF MEDIA AND JOURNALISM STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN DRAMA(BA.D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN LITERATURE(BA.L)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN HUMAN RESOURCE MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF COMMUNICATION SCIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN INTERNATIONAL RELATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN LOCAL GOVERNMENT ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN PEACE, SECURITY AND CONFLICT RESOLUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN CRIMINOLOGY AND SECURITY STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN COMMUNITY DEVELOPMENT AND SOCIAL WELFARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN POLICE AND SECURITY STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN CHILD,  YOUTH AND FAMILY STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN RURAL SOCIOLOGY AND COMMUNITY DEVELOPMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ARTS IN SECURITY AND CORRECTIONAL STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELORS OF ARTS IN MIGRATION STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELORS OF INDUSTRIAL SOCIOLOGY AND LABOUR STUDIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Sure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF LAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF LAWS(LLB) FULL TIME OR PART-TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF MEDICINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Med.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF MEDICINE AND SURGERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF HUMAN BIOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF NURSING SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursing Sc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE NURSING(DURATION FOUR YEAR(4) YEARS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MIDWIFERY(DURATION FIVE(5) YEARS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN ONCOLOGY NURSING(DURATION FIVE(5) YEARS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN PUBLIC HEALTH NURSING(DURATION FOUR(4) YEARS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MENTAL HEALTH AND PSYCHIATRIC NURSING(DURATION FOUR(4) YEARS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF MINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN GEOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING IN MINING ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING IN METALLURGICAL ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING IN GEOTECHNICAL ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERTIFICATE IN MINING ENGINEERING (1 YEAR BLENDED LEARNING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERTIFICATE IN METALLURGICAL ENGINEERING (1 YEAR BLENDED LEARNING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF NATURAL SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN COMPUTER SCIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN COMPUTER SYSTEMS ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN NETWORKING AND INFORMATION SECURITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN SOFTWARE ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN ACTUARIAL SCIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOLOGICAL SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN BIOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN CHEMICAL &amp; BIOLOGICAL SCIENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN CHEMISTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MATHEMATICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MICROBIOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MOLECULAR BIOLOGY AND GENETICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN NATURAL RESOURCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN PARASITOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN PHYSICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN STATISTICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF PUBLIC HEALTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pub. Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE (ENVIRONMENTAL HEALTH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE (HEALTH SERVICES MANAGEMENT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE (HEALTH PROMOTION)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL OF VETERINARY MEDICINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vet. Med.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF VETERINARY MEDICINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRADUATE SCHOOL OF BUSINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN MARKETING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN ACCOUNTING AND FINANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN HUMAN RESOURCE MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN BUSINESS MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN TRANSPORT AND LOGISTICS MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF SCIENCE IN INNOVATION AND ENTREPRENEURSHIP</t>
   </si>
   <si>
     <t xml:space="preserve">program_description</t>
@@ -785,21 +786,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI133"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="99.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="11.52"/>
@@ -1014,12 +1015,17 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
+      <c r="E11" s="1" t="str">
+        <f aca="false">Admitted!A8</f>
+        <v>BACHELOR OF AGRICULTURAL SCIENCES</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1027,17 +1033,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f aca="false">Admitted!A34</f>
-        <v>BACHELOR OF SCIENCE AGRICULTURAL ECONOMICS</v>
+        <f aca="false">Admitted!A12</f>
+        <v>BACHELOR OF ARTS WITH EDUCATION</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1053,22 +1059,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f aca="false">Admitted!A8</f>
-        <v>BACHELOR OF AGRICULTURAL SCIENCES</v>
+        <f aca="false">Admitted!A26</f>
+        <v>BACHELOR OF EDUCATION (ENVIRONMENTAL EDUCATION)</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AMF13" s="0"/>
-      <c r="AMG13" s="0"/>
-      <c r="AMH13" s="0"/>
-      <c r="AMI13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1076,25 +1081,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f aca="false">Admitted!A12</f>
-        <v>BACHELOR OF ARTS WITH EDUCATION</v>
+        <f aca="false">Admitted!A35</f>
+        <v>BACHELOR OF ARTS IN LIBRARY AND INFORMATION SCIENCE</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AMF14" s="0"/>
-      <c r="AMG14" s="0"/>
-      <c r="AMH14" s="0"/>
-      <c r="AMI14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1102,17 +1103,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f aca="false">Admitted!A26</f>
-        <v>BACHELOR OF EDUCATION (ENVIRONMENTAL EDUCATION)</v>
+        <f aca="false">Admitted!A36</f>
+        <v>BACHELOR OF ARTS WITH LIBRARY &amp; INFORMATION STUDIES</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1124,17 +1125,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f aca="false">Admitted!A35</f>
-        <v>BACHELOR OF ARTS IN LIBRARY AND INFORMATION SCIENCE</v>
+        <f aca="false">Admitted!A43</f>
+        <v>BACHELOR OF EDUCATION - SPECIAL EDUCATION</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1146,17 +1147,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f aca="false">Admitted!A36</f>
-        <v>BACHELOR OF ARTS WITH LIBRARY &amp; INFORMATION STUDIES</v>
+        <f aca="false">Admitted!A57</f>
+        <v>BACHELOR OF EDUCATION(SOCIOLOGY OF EDUC.)</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1168,17 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f aca="false">Admitted!A43</f>
-        <v>BACHELOR OF EDUCATION - SPECIAL EDUCATION</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1190,17 +1187,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f aca="false">Admitted!A57</f>
-        <v>BACHELOR OF EDUCATION(SOCIOLOGY OF EDUC.)</v>
+        <f aca="false">Admitted!A49</f>
+        <v>BACHELOR OF EDUCATION (LITERACY &amp; LANGUAGE)</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1212,13 +1209,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f aca="false">Admitted!A41</f>
+        <v>BACHELOR OF ARTS IN RECORDS AND ARCHIVES MANAGEMENT (BARAM)</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1230,17 +1231,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f aca="false">Admitted!A49</f>
-        <v>BACHELOR OF EDUCATION (LITERACY &amp; LANGUAGE)</v>
+        <f aca="false">Admitted!A10</f>
+        <v>BACHELOR OF INFORMATION AND COMMUNICATION TECHNOLOGIES WITH EDUCATION (B.ICTs.Ed)</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1252,17 +1253,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f aca="false">Admitted!A41</f>
-        <v>BACHELOR OF ARTS IN RECORDS AND ARCHIVES MANAGEMENT (BARAM)</v>
+        <f aca="false">Admitted!A44</f>
+        <v>BACHELOR OF EDUCATION (PRIMARY)</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1274,17 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f aca="false">Admitted!A10</f>
-        <v>BACHELOR OF INFORMATION AND COMMUNICATION TECHNOLOGIES WITH EDUCATION (B.ICTs.Ed)</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -1296,17 +1293,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f aca="false">Admitted!A44</f>
-        <v>BACHELOR OF EDUCATION (PRIMARY)</v>
+        <f aca="false">Admitted!A46</f>
+        <v>BACHELOR OF EDUCATION(GUIDANCE &amp; COUNSELING)</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
@@ -1318,13 +1315,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f aca="false">Admitted!A21</f>
+        <v>BACHELOR OF EDUCATION(EDUCATIONAL ADMINISTRATION AND MANAGEMENT)</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
@@ -1336,17 +1337,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f aca="false">Admitted!A46</f>
-        <v>BACHELOR OF EDUCATION(GUIDANCE &amp; COUNSELING)</v>
+        <f aca="false">Admitted!A51</f>
+        <v>BACHELOR OF EDUCATION (SOCIAL SCIENCES)</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
@@ -1358,17 +1359,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f aca="false">Admitted!A21</f>
-        <v>BACHELOR OF EDUCATION(EDUCATIONAL ADMINISTRATION AND MANAGEMENT)</v>
+        <f aca="false">Admitted!A45</f>
+        <v>BACHELOR OF ADULT EDUCATION</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1380,17 +1381,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f aca="false">Admitted!A51</f>
-        <v>BACHELOR OF EDUCATION (SOCIAL SCIENCES)</v>
+        <f aca="false">Admitted!A48</f>
+        <v>BACHELOR OF EDUCATION(SECONDARY)MATH &amp; SC.</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -1402,17 +1403,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f aca="false">Admitted!A45</f>
-        <v>BACHELOR OF ADULT EDUCATION</v>
+        <f aca="false">Admitted!A29</f>
+        <v>BACHELOR OF SCIENCE WITH EDUCATION</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1424,17 +1425,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f aca="false">Admitted!A48</f>
-        <v>BACHELOR OF EDUCATION(SECONDARY)MATH &amp; SC.</v>
+        <f aca="false">Admitted!A28</f>
+        <v>BACHELOR OF AGRICULTURE WITH EDUCATION</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -1446,17 +1447,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f aca="false">Admitted!A29</f>
-        <v>BACHELOR OF SCIENCE WITH EDUCATION</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -1468,17 +1465,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f aca="false">Admitted!A28</f>
-        <v>BACHELOR OF AGRICULTURE WITH EDUCATION</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -1490,10 +1483,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
@@ -1508,10 +1501,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>41</v>
@@ -1526,10 +1519,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>42</v>
@@ -1544,13 +1537,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
@@ -1562,13 +1555,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -1580,10 +1573,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>47</v>
@@ -1598,10 +1591,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
@@ -1616,10 +1609,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>49</v>
@@ -1634,13 +1627,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f aca="false">Admitted!A5</f>
+        <v>BACHELOR OF ENGINEERING</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>9</v>
@@ -1652,13 +1646,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f aca="false">Admitted!A13</f>
+        <v>BACHELOR OF SCIENCE IN BIOMEDICAL SCIENCES</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -1670,14 +1668,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f aca="false">Admitted!A5</f>
-        <v>BACHELOR OF ENGINEERING</v>
+        <f aca="false">Admitted!A9</f>
+        <v>BACHELOR OF PHARMACY</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>9</v>
@@ -1689,17 +1690,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f aca="false">Admitted!A13</f>
-        <v>BACHELOR OF SCIENCE IN BIOMEDICAL SCIENCES</v>
+        <f aca="false">Admitted!A7</f>
+        <v>BACHELOR OF SCIENCE IN PHYSIOTHERAPY</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>9</v>
@@ -1711,17 +1712,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f aca="false">Admitted!A9</f>
-        <v>BACHELOR OF PHARMACY</v>
+        <f aca="false">Admitted!A23</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -1733,17 +1734,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f aca="false">Admitted!A7</f>
-        <v>BACHELOR OF SCIENCE IN PHYSIOTHERAPY</v>
+        <f aca="false">E45</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>9</v>
@@ -1755,16 +1756,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f aca="false">Admitted!A23</f>
+        <f aca="false">E46</f>
         <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -1777,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>58</v>
@@ -1799,17 +1800,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f aca="false">E48</f>
-        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+        <f aca="false">Admitted!A14</f>
+        <v>BACHELOR OF BUSINESS ADMINISTRATION</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>9</v>
@@ -1821,17 +1822,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f aca="false">E49</f>
-        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+        <v>62</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -1843,17 +1840,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f aca="false">Admitted!A14</f>
-        <v>BACHELOR OF BUSINESS ADMINISTRATION</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -1865,10 +1858,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>64</v>
@@ -1883,10 +1876,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>65</v>
@@ -1901,10 +1894,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>66</v>
@@ -1919,10 +1912,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>67</v>
@@ -1937,10 +1930,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>68</v>
@@ -1955,10 +1948,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>69</v>
@@ -1973,10 +1966,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>70</v>
@@ -1991,10 +1984,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
@@ -2009,10 +2002,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>72</v>
@@ -2027,10 +2020,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>73</v>
@@ -2045,10 +2038,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>74</v>
@@ -2063,10 +2056,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>75</v>
@@ -2081,13 +2074,17 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f aca="false">Admitted!A19</f>
+        <v>BACHELOR OF PUBLIC RELATIONS AND ADVERTISING</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2099,13 +2096,17 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f aca="false">Admitted!A27</f>
+        <v>BACHELOR OF SOCIAL WORK</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2117,17 +2118,17 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f aca="false">Admitted!A19</f>
-        <v>BACHELOR OF PUBLIC RELATIONS AND ADVERTISING</v>
+        <f aca="false">Admitted!A24</f>
+        <v>BACHELOR OF MEDIA AND JOURNALISM STUDIES</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2139,17 +2140,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f aca="false">Admitted!A27</f>
-        <v>BACHELOR OF SOCIAL WORK</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>9</v>
@@ -2161,17 +2158,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f aca="false">Admitted!A24</f>
-        <v>BACHELOR OF MEDIA AND JOURNALISM STUDIES</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -2183,10 +2176,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>81</v>
@@ -2201,13 +2194,17 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f aca="false">Admitted!A52</f>
+        <v>BACHELOR OF MASS COMMUNICATION</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>9</v>
@@ -2219,10 +2216,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>83</v>
@@ -2237,17 +2234,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f aca="false">Admitted!A52</f>
-        <v>BACHELOR OF MASS COMMUNICATION</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>9</v>
@@ -2259,10 +2252,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>85</v>
@@ -2277,13 +2270,17 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f aca="false">Admitted!A55</f>
+        <v>BACHELOR OF ARTS IN CRIMINOLOGY AND SECURITY STUDIES</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2295,10 +2292,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>87</v>
@@ -2313,17 +2310,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f aca="false">Admitted!A55</f>
-        <v>BACHELOR OF ARTS IN CRIMINOLOGY AND SECURITY STUDIES</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>9</v>
@@ -2335,10 +2328,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>89</v>
@@ -2353,10 +2346,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>90</v>
@@ -2371,13 +2364,17 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f aca="false">Admitted!A53</f>
+        <v>BACHELOR OF ARTS IN RURAL SOCIOLOGY AND COMMUNITY DEVELOPMENT PROGRAMME</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>9</v>
@@ -2389,10 +2386,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>92</v>
@@ -2407,17 +2404,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E81" s="1" t="str">
-        <f aca="false">Admitted!A53</f>
-        <v>BACHELOR OF ARTS IN RURAL SOCIOLOGY AND COMMUNITY DEVELOPMENT PROGRAMME</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>9</v>
@@ -2429,13 +2422,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f aca="false">Admitted!A4</f>
+        <v>BACHELOR OF ARTS</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -2447,13 +2441,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f aca="false">Admitted!A47</f>
+        <v>BACHELOR OF ARTS - NON QUOTA STUDIES</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -2465,14 +2460,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f aca="false">Admitted!A4</f>
-        <v>BACHELOR OF ARTS</v>
+        <v>60</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -2484,17 +2478,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f aca="false">Admitted!A47</f>
-        <v>BACHELOR OF ARTS - NON QUOTA STUDIES</v>
+        <f aca="false">Admitted!A54</f>
+        <v>DIPLOMA IN DEFENCE AND SECURITY STUDIES</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,16 +2497,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f aca="false">Admitted!A56</f>
+        <v>DIPLOMA IN INTELLIGENCE &amp; SECURITY STUDIES</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,17 +2516,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f aca="false">Admitted!A54</f>
-        <v>DIPLOMA IN DEFENCE AND SECURITY STUDIES</v>
+        <f aca="false">Admitted!A2</f>
+        <v>BACHELOR OF LAWS</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,17 +2538,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f aca="false">Admitted!A56</f>
-        <v>DIPLOMA IN INTELLIGENCE &amp; SECURITY STUDIES</v>
+        <f aca="false">Admitted!A3</f>
+        <v>BACHELOR OF MEDICINE AND BACHELOR OF SURGERY</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,17 +2560,17 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f aca="false">Admitted!A2</f>
-        <v>BACHELOR OF LAWS</v>
+        <f aca="false">Admitted!A22</f>
+        <v>BACHELOR OF SCIENCE IN HUMAN BIOLOGY</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>9</v>
@@ -2581,17 +2582,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f aca="false">Admitted!A3</f>
-        <v>BACHELOR OF MEDICINE AND BACHELOR OF SURGERY</v>
+        <f aca="false">Admitted!A17</f>
+        <v>BACHELOR OF SCIENCE IN NURSING</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>9</v>
@@ -2603,17 +2604,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f aca="false">Admitted!A22</f>
-        <v>BACHELOR OF SCIENCE IN HUMAN BIOLOGY</v>
+        <f aca="false">Admitted!A25</f>
+        <v>BACHELOR OF SCIENCE IN MIDWIFERY</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>9</v>
@@ -2625,17 +2626,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f aca="false">Admitted!A17</f>
-        <v>BACHELOR OF SCIENCE IN NURSING</v>
+        <f aca="false">Admitted!A40</f>
+        <v>Bachelor of Science in Oncology Nursing</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>9</v>
@@ -2647,17 +2648,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E93" s="1" t="str">
-        <f aca="false">Admitted!A25</f>
-        <v>BACHELOR OF SCIENCE IN MIDWIFERY</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -2669,17 +2666,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E94" s="1" t="str">
-        <f aca="false">Admitted!A40</f>
-        <v>Bachelor of Science in Oncology Nursing</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>9</v>
@@ -2691,13 +2684,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f aca="false">Admitted!A15</f>
+        <v>BACHELOR OF SCIENCE IN GEOLOGY</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>9</v>
@@ -2709,13 +2706,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f aca="false">Admitted!A31</f>
+        <v>BACHELOR OF ENGINEERING - MINES</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -2727,17 +2728,17 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f aca="false">Admitted!A15</f>
-        <v>BACHELOR OF SCIENCE IN GEOLOGY</v>
+        <f aca="false">E96</f>
+        <v>BACHELOR OF ENGINEERING - MINES</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -2749,16 +2750,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f aca="false">Admitted!A31</f>
+        <f aca="false">E97</f>
         <v>BACHELOR OF ENGINEERING - MINES</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -2771,17 +2772,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f aca="false">E98</f>
-        <v>BACHELOR OF ENGINEERING - MINES</v>
+        <f aca="false">Admitted!A33</f>
+        <v>BACHELOR OF MINERAL SCIENCES</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -2793,17 +2791,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f aca="false">E99</f>
-        <v>BACHELOR OF ENGINEERING - MINES</v>
+        <f aca="false">Admitted!A42</f>
+        <v>BACHELOR OF SCIENCE - MINES</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>9</v>
@@ -2815,14 +2810,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="1" t="str">
-        <f aca="false">Admitted!A33</f>
-        <v>BACHELOR OF MINERAL SCIENCES</v>
+        <v>111</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>9</v>
@@ -2834,14 +2828,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" s="1" t="str">
-        <f aca="false">Admitted!A42</f>
-        <v>BACHELOR OF SCIENCE - MINES</v>
+        <v>111</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
@@ -2853,13 +2846,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f aca="false">Admitted!A11</f>
+        <v>BACHELOR OF COMPUTER SCIENCE</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>9</v>
@@ -2871,13 +2868,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -2889,17 +2886,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E105" s="1" t="str">
-        <f aca="false">Admitted!A11</f>
-        <v>BACHELOR OF COMPUTER SCIENCE</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -2911,10 +2904,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>123</v>
@@ -2929,10 +2922,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>124</v>
@@ -2947,10 +2940,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>125</v>
@@ -2965,10 +2958,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>126</v>
@@ -2983,10 +2976,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>127</v>
@@ -3001,10 +2994,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>128</v>
@@ -3019,10 +3012,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>129</v>
@@ -3037,10 +3030,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>130</v>
@@ -3055,10 +3048,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>131</v>
@@ -3073,10 +3066,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>132</v>
@@ -3091,10 +3084,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>133</v>
@@ -3109,10 +3102,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>134</v>
@@ -3127,10 +3120,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>135</v>
@@ -3145,16 +3138,17 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f aca="false">Admitted!A18</f>
+        <v>BACHELOR OF SCIENCE</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,16 +3157,17 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f aca="false">Admitted!A38</f>
+        <v>BACHELOR OF SCIENCE - NRS</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,17 +3176,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="1" t="str">
-        <f aca="false">Admitted!A18</f>
-        <v>BACHELOR OF SCIENCE</v>
+        <v>137</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,17 +3194,20 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f aca="false">Admitted!A38</f>
-        <v>BACHELOR OF SCIENCE - NRS</v>
+        <f aca="false">Admitted!A39</f>
+        <v>BACHELOR OF SCIENCE IN HEALTH SERVICES MANAGEMENT AND PLANNING</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3216,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>140</v>
@@ -3237,17 +3234,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f aca="false">Admitted!A39</f>
-        <v>BACHELOR OF SCIENCE IN HEALTH SERVICES MANAGEMENT AND PLANNING</v>
+        <f aca="false">Admitted!A6</f>
+        <v>BACHELOR OF SCIENCE - PH</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>9</v>
@@ -3259,13 +3253,17 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f aca="false">Admitted!A16</f>
+        <v>BACHELOR OF VETERINARY - VET</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>9</v>
@@ -3277,14 +3275,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E126" s="1" t="str">
-        <f aca="false">Admitted!A6</f>
-        <v>BACHELOR OF SCIENCE - PH</v>
+        <v>145</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>9</v>
@@ -3296,17 +3293,17 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f aca="false">Admitted!A16</f>
-        <v>BACHELOR OF VETERINARY - VET</v>
+        <f aca="false">Admitted!A37</f>
+        <v>BACHELOR OF ACCOUNTANCY</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>9</v>
@@ -3318,10 +3315,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>148</v>
@@ -3336,20 +3333,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f aca="false">Admitted!A37</f>
-        <v>BACHELOR OF ACCOUNTANCY</v>
+        <f aca="false">Admitted!A50</f>
+        <v>BACHELOR OF ARTS IN BUSINESS STUDIES</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3355,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>150</v>
@@ -3376,58 +3373,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="1" t="str">
-        <f aca="false">Admitted!A50</f>
-        <v>BACHELOR OF ARTS IN BUSINESS STUDIES</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <f aca="false">A131+1</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <f aca="false">A132+1</f>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3440,6 +3399,2665 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMI133"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="99.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <f aca="false">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <f aca="false">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <f aca="false">A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <f aca="false">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f aca="false">Admitted!A30</f>
+        <v>BACHELOR OF FOOD SCIENCE AND TECHNOLOGY</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <f aca="false">A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f aca="false">Admitted!A20</f>
+        <v>BACHELOR OF SCIENCE AGRICULTURAL EXTENSION</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <f aca="false">A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f aca="false">Admitted!A34</f>
+        <v>BACHELOR OF SCIENCE AGRICULTURAL ECONOMICS</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <f aca="false">A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f aca="false">Admitted!A32</f>
+        <v>BACHELOR OF SCIENCE HUMAN NUTRITION</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <f aca="false">A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <f aca="false">A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <f aca="false">A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f aca="false">Admitted!A34</f>
+        <v>BACHELOR OF SCIENCE AGRICULTURAL ECONOMICS</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="false">A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f aca="false">Admitted!A8</f>
+        <v>BACHELOR OF AGRICULTURAL SCIENCES</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <f aca="false">A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f aca="false">Admitted!A12</f>
+        <v>BACHELOR OF ARTS WITH EDUCATION</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <f aca="false">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f aca="false">Admitted!A26</f>
+        <v>BACHELOR OF EDUCATION (ENVIRONMENTAL EDUCATION)</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <f aca="false">A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f aca="false">Admitted!A35</f>
+        <v>BACHELOR OF ARTS IN LIBRARY AND INFORMATION SCIENCE</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <f aca="false">A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f aca="false">Admitted!A36</f>
+        <v>BACHELOR OF ARTS WITH LIBRARY &amp; INFORMATION STUDIES</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <f aca="false">A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f aca="false">Admitted!A43</f>
+        <v>BACHELOR OF EDUCATION - SPECIAL EDUCATION</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <f aca="false">A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f aca="false">Admitted!A57</f>
+        <v>BACHELOR OF EDUCATION(SOCIOLOGY OF EDUC.)</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <f aca="false">A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <f aca="false">A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f aca="false">Admitted!A49</f>
+        <v>BACHELOR OF EDUCATION (LITERACY &amp; LANGUAGE)</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <f aca="false">A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f aca="false">Admitted!A41</f>
+        <v>BACHELOR OF ARTS IN RECORDS AND ARCHIVES MANAGEMENT (BARAM)</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <f aca="false">A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f aca="false">Admitted!A10</f>
+        <v>BACHELOR OF INFORMATION AND COMMUNICATION TECHNOLOGIES WITH EDUCATION (B.ICTs.Ed)</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <f aca="false">A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f aca="false">Admitted!A44</f>
+        <v>BACHELOR OF EDUCATION (PRIMARY)</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="false">A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f aca="false">Admitted!A46</f>
+        <v>BACHELOR OF EDUCATION(GUIDANCE &amp; COUNSELING)</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f aca="false">Admitted!A21</f>
+        <v>BACHELOR OF EDUCATION(EDUCATIONAL ADMINISTRATION AND MANAGEMENT)</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f aca="false">Admitted!A51</f>
+        <v>BACHELOR OF EDUCATION (SOCIAL SCIENCES)</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <f aca="false">A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f aca="false">Admitted!A45</f>
+        <v>BACHELOR OF ADULT EDUCATION</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <f aca="false">A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f aca="false">Admitted!A48</f>
+        <v>BACHELOR OF EDUCATION(SECONDARY)MATH &amp; SC.</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <f aca="false">A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f aca="false">Admitted!A29</f>
+        <v>BACHELOR OF SCIENCE WITH EDUCATION</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <f aca="false">A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f aca="false">Admitted!A28</f>
+        <v>BACHELOR OF AGRICULTURE WITH EDUCATION</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <f aca="false">A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <f aca="false">A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <f aca="false">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <f aca="false">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <f aca="false">A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <f aca="false">A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <f aca="false">A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <f aca="false">A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <f aca="false">A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <f aca="false">A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <f aca="false">A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f aca="false">Admitted!A5</f>
+        <v>BACHELOR OF ENGINEERING</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <f aca="false">A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f aca="false">Admitted!A13</f>
+        <v>BACHELOR OF SCIENCE IN BIOMEDICAL SCIENCES</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <f aca="false">A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f aca="false">Admitted!A9</f>
+        <v>BACHELOR OF PHARMACY</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <f aca="false">A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f aca="false">Admitted!A7</f>
+        <v>BACHELOR OF SCIENCE IN PHYSIOTHERAPY</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <f aca="false">A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f aca="false">Admitted!A23</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <f aca="false">A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f aca="false">E47</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <f aca="false">A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f aca="false">E48</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <f aca="false">A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f aca="false">E49</f>
+        <v>BACHELOR OF SCIENCE IN RADIOGRAPHY (DIAGNOSTICS/THERAPEUTIC)</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <f aca="false">A50+1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f aca="false">Admitted!A14</f>
+        <v>BACHELOR OF BUSINESS ADMINISTRATION</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <f aca="false">A51+1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <f aca="false">A52+1</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <f aca="false">A53+1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <f aca="false">A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <f aca="false">A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <f aca="false">A56+1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <f aca="false">A57+1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <f aca="false">A58+1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <f aca="false">A59+1</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <f aca="false">A60+1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <f aca="false">A61+1</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <f aca="false">A62+1</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <f aca="false">A63+1</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <f aca="false">A64+1</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <f aca="false">A65+1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f aca="false">Admitted!A19</f>
+        <v>BACHELOR OF PUBLIC RELATIONS AND ADVERTISING</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <f aca="false">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f aca="false">Admitted!A27</f>
+        <v>BACHELOR OF SOCIAL WORK</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <f aca="false">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f aca="false">Admitted!A24</f>
+        <v>BACHELOR OF MEDIA AND JOURNALISM STUDIES</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <f aca="false">A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <f aca="false">A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <f aca="false">A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <f aca="false">A71+1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f aca="false">Admitted!A52</f>
+        <v>BACHELOR OF MASS COMMUNICATION</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <f aca="false">A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <f aca="false">A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <f aca="false">A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <f aca="false">A75+1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f aca="false">Admitted!A55</f>
+        <v>BACHELOR OF ARTS IN CRIMINOLOGY AND SECURITY STUDIES</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <f aca="false">A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <f aca="false">A77+1</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <f aca="false">A78+1</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <f aca="false">A79+1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <f aca="false">A80+1</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f aca="false">Admitted!A53</f>
+        <v>BACHELOR OF ARTS IN RURAL SOCIOLOGY AND COMMUNITY DEVELOPMENT PROGRAMME</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <f aca="false">A81+1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <f aca="false">A82+1</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <f aca="false">A83+1</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f aca="false">Admitted!A4</f>
+        <v>BACHELOR OF ARTS</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <f aca="false">A84+1</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f aca="false">Admitted!A47</f>
+        <v>BACHELOR OF ARTS - NON QUOTA STUDIES</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <f aca="false">A85+1</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <f aca="false">A86+1</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f aca="false">Admitted!A54</f>
+        <v>DIPLOMA IN DEFENCE AND SECURITY STUDIES</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <f aca="false">A87+1</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f aca="false">Admitted!A56</f>
+        <v>DIPLOMA IN INTELLIGENCE &amp; SECURITY STUDIES</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <f aca="false">A88+1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f aca="false">Admitted!A2</f>
+        <v>BACHELOR OF LAWS</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <f aca="false">A89+1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f aca="false">Admitted!A3</f>
+        <v>BACHELOR OF MEDICINE AND BACHELOR OF SURGERY</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <f aca="false">A90+1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f aca="false">Admitted!A22</f>
+        <v>BACHELOR OF SCIENCE IN HUMAN BIOLOGY</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <f aca="false">A91+1</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f aca="false">Admitted!A17</f>
+        <v>BACHELOR OF SCIENCE IN NURSING</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <f aca="false">A92+1</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f aca="false">Admitted!A25</f>
+        <v>BACHELOR OF SCIENCE IN MIDWIFERY</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <f aca="false">A93+1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f aca="false">Admitted!A40</f>
+        <v>Bachelor of Science in Oncology Nursing</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <f aca="false">A94+1</f>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <f aca="false">A95+1</f>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <f aca="false">A96+1</f>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f aca="false">Admitted!A15</f>
+        <v>BACHELOR OF SCIENCE IN GEOLOGY</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <f aca="false">A97+1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f aca="false">Admitted!A31</f>
+        <v>BACHELOR OF ENGINEERING - MINES</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <f aca="false">A98+1</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f aca="false">E98</f>
+        <v>BACHELOR OF ENGINEERING - MINES</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <f aca="false">A99+1</f>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f aca="false">E99</f>
+        <v>BACHELOR OF ENGINEERING - MINES</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <f aca="false">A100+1</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f aca="false">Admitted!A33</f>
+        <v>BACHELOR OF MINERAL SCIENCES</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <f aca="false">A101+1</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f aca="false">Admitted!A42</f>
+        <v>BACHELOR OF SCIENCE - MINES</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <f aca="false">A102+1</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <f aca="false">A103+1</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <f aca="false">A104+1</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f aca="false">Admitted!A11</f>
+        <v>BACHELOR OF COMPUTER SCIENCE</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <f aca="false">A105+1</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <f aca="false">A106+1</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <f aca="false">A107+1</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <f aca="false">A108+1</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <f aca="false">A109+1</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <f aca="false">A110+1</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <f aca="false">A111+1</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <f aca="false">A112+1</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <f aca="false">A113+1</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <f aca="false">A114+1</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <f aca="false">A115+1</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <f aca="false">A116+1</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <f aca="false">A117+1</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <f aca="false">A118+1</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <f aca="false">A119+1</f>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <f aca="false">A120+1</f>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f aca="false">Admitted!A18</f>
+        <v>BACHELOR OF SCIENCE</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <f aca="false">A121+1</f>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f aca="false">Admitted!A38</f>
+        <v>BACHELOR OF SCIENCE - NRS</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <f aca="false">A122+1</f>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <f aca="false">A123+1</f>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f aca="false">Admitted!A39</f>
+        <v>BACHELOR OF SCIENCE IN HEALTH SERVICES MANAGEMENT AND PLANNING</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <f aca="false">A124+1</f>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <f aca="false">A125+1</f>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="1" t="str">
+        <f aca="false">Admitted!A6</f>
+        <v>BACHELOR OF SCIENCE - PH</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <f aca="false">A126+1</f>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <f aca="false">Admitted!A16</f>
+        <v>BACHELOR OF VETERINARY - VET</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <f aca="false">A127+1</f>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <f aca="false">A128+1</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129" s="1" t="str">
+        <f aca="false">Admitted!A37</f>
+        <v>BACHELOR OF ACCOUNTANCY</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <f aca="false">A129+1</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <f aca="false">A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" s="1" t="str">
+        <f aca="false">Admitted!A50</f>
+        <v>BACHELOR OF ARTS IN BUSINESS STUDIES</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <f aca="false">A131+1</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <f aca="false">A132+1</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3490,7 +6108,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +6118,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,22 +6133,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +6168,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +6193,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,12 +6203,12 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,7 +6278,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,7 +6298,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +6328,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +6348,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
